--- a/MOL Roles Features.xlsx
+++ b/MOL Roles Features.xlsx
@@ -28,6 +28,14 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="M6">
+      <text>
+        <t xml:space="preserve">This is talking about a fictional character's work from the task
+	-Jim Malamut
+Should we just include these in the code?
+	-Jim Malamut</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="R9">
       <text>
         <t xml:space="preserve">How general do we want to be?
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="306">
   <si>
     <t>Code</t>
   </si>
@@ -209,6 +217,12 @@
   </si>
   <si>
     <t>nonexample3_obsid_uttid</t>
+  </si>
+  <si>
+    <t>example4</t>
+  </si>
+  <si>
+    <t>example4_obsid_uttid</t>
   </si>
   <si>
     <t>Offtask</t>
@@ -432,6 +446,14 @@
     <t>2_a_41</t>
   </si>
   <si>
+    <t>Student A9	No, I forgot what "salado" means.
+Student A9	It doesn't mean salad.
+Student A13	Yes, ensalada is salad.</t>
+  </si>
+  <si>
+    <t>27_b_259-261</t>
+  </si>
+  <si>
     <t>Understanding</t>
   </si>
   <si>
@@ -528,6 +550,24 @@
 Just saying a number does not count unless there is some contextual clue above or below to corrobate that it is a falsifiable claim</t>
   </si>
   <si>
+    <t>It's 3006.</t>
+  </si>
+  <si>
+    <t>2_a_198</t>
+  </si>
+  <si>
+    <t>It's doscientos.</t>
+  </si>
+  <si>
+    <t>38_a_95</t>
+  </si>
+  <si>
+    <t>Veinte por cuarenta es ochenta.</t>
+  </si>
+  <si>
+    <t>2_a_165</t>
+  </si>
+  <si>
     <t>"Twelve point nine; let's try that."</t>
   </si>
   <si>
@@ -568,6 +608,30 @@
 Why 
 Concepts
 016_a_440 IS reasoning, but 016_a_444 and 446 are NOT</t>
+  </si>
+  <si>
+    <t>If I have twelve, then I should, then when I have two left this should be a tower of ten.</t>
+  </si>
+  <si>
+    <t>32_a_49</t>
+  </si>
+  <si>
+    <t>Oh, because this one has different shit, this one has the same.</t>
+  </si>
+  <si>
+    <t>18_a_601</t>
+  </si>
+  <si>
+    <t>If you want a bigger negative than the original negative, we have to add another negative.</t>
+  </si>
+  <si>
+    <t>27_a_5</t>
+  </si>
+  <si>
+    <t>I take my jacket off because it's hot.</t>
+  </si>
+  <si>
+    <t>26_b_115</t>
   </si>
   <si>
     <t>agree</t>
@@ -619,6 +683,49 @@
 does this include confirmation to a clarifying math q?</t>
   </si>
   <si>
+    <t>Student D3        It might be two hundred and forty.
+Student D16        I think it's... yeah, two hundred and forty.</t>
+  </si>
+  <si>
+    <t>32_b_151-152</t>
+  </si>
+  <si>
+    <t>Student C3        I got 240.
+Student C4        Yeah, me too.</t>
+  </si>
+  <si>
+    <t>3_a_50-51</t>
+  </si>
+  <si>
+    <t>Student A19	Three is greater than X?
+Student A8	Yeah.</t>
+  </si>
+  <si>
+    <t>83_d_57-58</t>
+  </si>
+  <si>
+    <t>Ah, ya no te puedo amenazar. Oh yes I can.</t>
+  </si>
+  <si>
+    <t>18_a_594</t>
+  </si>
+  <si>
+    <t>Student G16        You're not doing it.
+Student G17        Yes, we are, we're solving!</t>
+  </si>
+  <si>
+    <t>26_a_343-344</t>
+  </si>
+  <si>
+    <t>Student D19        Okay, so it's probably two hundred and eighty eight.
+Student D19        More like...
+Student D19        altogether, everyone in the class?
+Student D11        Yeah, I'm not crying, I just have something in my eye.</t>
+  </si>
+  <si>
+    <t>31_c_71-74</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
@@ -665,6 +772,26 @@
 does this include negation of a clarifying math q?</t>
   </si>
   <si>
+    <t>No, you can't put the five because you never know how many friends there is.</t>
+  </si>
+  <si>
+    <t>23_a_212</t>
+  </si>
+  <si>
+    <t>Student A9        900
+Student A13        That's cap.</t>
+  </si>
+  <si>
+    <t>27_c_770-771</t>
+  </si>
+  <si>
+    <t>Student C9	The answer is supposed to be the one at the bottom and she got a zero.
+Student C18	No, that's the remainder.</t>
+  </si>
+  <si>
+    <t>34_a_126-127</t>
+  </si>
+  <si>
     <t>compare</t>
   </si>
   <si>
@@ -693,6 +820,31 @@
   </si>
   <si>
     <t>includes questions "e.g. Let's see who's closest"</t>
+  </si>
+  <si>
+    <t>I got the same thing as you.</t>
+  </si>
+  <si>
+    <t>82_a_1319</t>
+  </si>
+  <si>
+    <t>Student C5	I got twelve sixteen.
+Student C5	You didn't get that?</t>
+  </si>
+  <si>
+    <t>34_b_190-191</t>
+  </si>
+  <si>
+    <t>But you did division.</t>
+  </si>
+  <si>
+    <t>57_b_58</t>
+  </si>
+  <si>
+    <t>So, she didn't bring down the four, she didn't bring down the four, and two can go into four two times.</t>
+  </si>
+  <si>
+    <t>34_a_147</t>
   </si>
   <si>
     <t>addon</t>
@@ -740,6 +892,28 @@
     <t xml:space="preserve">"Furthermore..." </t>
   </si>
   <si>
+    <t>Student A13	The Trench is negative.
+Student A13	Because it's bellow sea level.
+Student A9	Yes, and we're gonna have to add that negative and positive.</t>
+  </si>
+  <si>
+    <t>27_c_250-252</t>
+  </si>
+  <si>
+    <t>Student C12	Because you had to bring down the three.
+Student C7	Yeah, and we can't bring down the zero.</t>
+  </si>
+  <si>
+    <t>33_b_156-157</t>
+  </si>
+  <si>
+    <t>Student B15	Sabemos que en una semana ganaron treinta y...
+Student B1	Treinta y ocho dólares.</t>
+  </si>
+  <si>
+    <t>23_a_393-394</t>
+  </si>
+  <si>
     <t>question</t>
   </si>
   <si>
@@ -755,6 +929,24 @@
     <t>Claims framed as questions (e.g. hedges) count as questions</t>
   </si>
   <si>
+    <t>¿Qué le dijiste?</t>
+  </si>
+  <si>
+    <t>66_b_441</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>27_c_253</t>
+  </si>
+  <si>
+    <t>Wait, which car?</t>
+  </si>
+  <si>
+    <t>30_b_2</t>
+  </si>
+  <si>
     <t>Guys, what the heck?</t>
   </si>
   <si>
@@ -768,6 +960,27 @@
   </si>
   <si>
     <t>repeats or rephrases others' statement</t>
+  </si>
+  <si>
+    <t>Student A13        I said sixty nine hundred.
+Student A9        Yes, sixty nine hundred.</t>
+  </si>
+  <si>
+    <t>27_b_31-32</t>
+  </si>
+  <si>
+    <t>Student A13        Atacama Trench.
+Student A9        Atacama Trench.</t>
+  </si>
+  <si>
+    <t>27_c_147-148</t>
+  </si>
+  <si>
+    <t>Student A14	That's because it's 20 multiplied by 300.
+Student A16	Why 300?</t>
+  </si>
+  <si>
+    <t>30_b_227-228</t>
   </si>
   <si>
     <t>monitor</t>
@@ -790,6 +1003,24 @@
 We are also including comparing what people are doing in relation to the teacher's expectations for progress</t>
   </si>
   <si>
+    <t>Do you need help?</t>
+  </si>
+  <si>
+    <t>47_c_310</t>
+  </si>
+  <si>
+    <t>Ya lo hice.</t>
+  </si>
+  <si>
+    <t>63_b_39</t>
+  </si>
+  <si>
+    <t>Oh dang, you still on the first one?</t>
+  </si>
+  <si>
+    <t>48_c_293</t>
+  </si>
+  <si>
     <t>nextstep</t>
   </si>
   <si>
@@ -800,16 +1031,46 @@
 Next steps can be repeated.</t>
   </si>
   <si>
+    <t>Try and see if eight can go into twenty-four on this.</t>
+  </si>
+  <si>
+    <t>47_c_166</t>
+  </si>
+  <si>
+    <t>And let's do 6.</t>
+  </si>
+  <si>
+    <t>84_d_29</t>
+  </si>
+  <si>
+    <t>Let's start by minusing 4, 'cause it's a plus 4.</t>
+  </si>
+  <si>
+    <t>83_d_89</t>
+  </si>
+  <si>
     <t>redirect</t>
   </si>
   <si>
     <t>Attempt to change topic of conversation back to on-task</t>
   </si>
   <si>
-    <t>Student A9: Bro, lock in!</t>
+    <t>Bro, lock in!</t>
   </si>
   <si>
     <t>061_a_64</t>
+  </si>
+  <si>
+    <t>Can you guys stop talking about that?</t>
+  </si>
+  <si>
+    <t>34_a_96</t>
+  </si>
+  <si>
+    <t>We're a group, we gotta stick together.</t>
+  </si>
+  <si>
+    <t>47_c_491</t>
   </si>
   <si>
     <t>compliment</t>
@@ -818,10 +1079,46 @@
     <t>Compliments, thanks, or encourages another student</t>
   </si>
   <si>
+    <t>Nice.</t>
+  </si>
+  <si>
+    <t>54_b_78</t>
+  </si>
+  <si>
+    <t>You can do this, come on.</t>
+  </si>
+  <si>
+    <t>54_b_76</t>
+  </si>
+  <si>
+    <t>You're so smart.</t>
+  </si>
+  <si>
+    <t>29_a_575</t>
+  </si>
+  <si>
     <t>apology</t>
   </si>
   <si>
     <t>Apologizes</t>
+  </si>
+  <si>
+    <t>Oh, zero, zero, sorry.</t>
+  </si>
+  <si>
+    <t>84_c_51</t>
+  </si>
+  <si>
+    <t>My bad, it isn't.</t>
+  </si>
+  <si>
+    <t>8_a_202</t>
+  </si>
+  <si>
+    <t>I shouldn't have said that, I'm really sorry that I said that.</t>
+  </si>
+  <si>
+    <t>9_a_1096</t>
   </si>
   <si>
     <t>Status</t>
@@ -1750,8 +2047,12 @@
       <c r="N1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -1775,28 +2076,28 @@
     </row>
     <row r="2" ht="60.0" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
@@ -1829,28 +2130,28 @@
     </row>
     <row r="3" ht="45.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="15"/>
@@ -1883,46 +2184,46 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -1949,46 +2250,46 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -2015,78 +2316,84 @@
     </row>
     <row r="6" ht="177.0" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -2095,10 +2402,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -17106,16 +17413,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>22</v>
@@ -17156,31 +17463,43 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="F2" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>119</v>
+      </c>
       <c r="L2" s="34" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
@@ -17189,28 +17508,44 @@
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="F3" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
@@ -17218,52 +17553,88 @@
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="F4" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="F5" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>158</v>
+      </c>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -17273,25 +17644,41 @@
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="F6" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>169</v>
+      </c>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
@@ -17299,23 +17686,35 @@
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="F7" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>178</v>
+      </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
@@ -17325,31 +17724,43 @@
     </row>
     <row r="8">
       <c r="A8" s="39" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="F8" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>189</v>
+      </c>
       <c r="L8" s="34" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -17358,23 +17769,35 @@
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="F9" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>200</v>
+      </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -17384,26 +17807,38 @@
     </row>
     <row r="10">
       <c r="A10" s="42" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="F10" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>211</v>
+      </c>
       <c r="L10" s="26"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -17413,23 +17848,35 @@
     </row>
     <row r="11">
       <c r="A11" s="42" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="F11" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>220</v>
+      </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -17439,25 +17886,33 @@
     </row>
     <row r="12">
       <c r="A12" s="42" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="34" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="H12" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -17467,21 +17922,33 @@
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="F13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>236</v>
+      </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -17491,21 +17958,33 @@
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="F14" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>244</v>
+      </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -36325,7 +36804,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -36336,113 +36815,113 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -36466,174 +36945,174 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B6" s="48"/>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B8" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="39" t="s">
-        <v>136</v>
-      </c>
       <c r="B13" s="47" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="42" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="B15" s="48"/>
     </row>
     <row r="16">
       <c r="A16" s="42" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="B16" s="48"/>
     </row>
     <row r="17">
       <c r="A17" s="42" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="B17" s="48"/>
     </row>
     <row r="18">
       <c r="A18" s="42" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="B18" s="48"/>
     </row>
@@ -39602,76 +40081,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
